--- a/DataBase/Datas/Skills.xlsx
+++ b/DataBase/Datas/Skills.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E77734-58B2-4D22-86E4-4A24E763ED57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E27FE10-55C3-4381-A51C-542CD7C9C2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trees" sheetId="1" r:id="rId1"/>
+    <sheet name="Abilitys" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
   <si>
     <t>##var</t>
   </si>
@@ -107,6 +108,61 @@
   </si>
   <si>
     <t>子技能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_path</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标路径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://icon.svg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cooldown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>casting_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷却时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吟唱时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火球术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放一个火球。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能类名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireBall</t>
+  </si>
+  <si>
+    <t>FireBall</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>script_name</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -215,15 +271,15 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -511,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:H4"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -541,213 +597,213 @@
       <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="6"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3">
         <v>3001</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>3002</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3">
         <v>3002</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>0</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>3003</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="3">
         <v>3004</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3">
         <v>3003</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>0</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3">
         <v>3004</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <v>0</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -760,4 +816,213 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC15A313-98CA-4B90-B0D8-70658DEA93FA}">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3">
+        <v>4001</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3">
+        <v>4002</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3">
+        <v>4003</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3">
+        <v>4004</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DataBase/Datas/Skills.xlsx
+++ b/DataBase/Datas/Skills.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E27FE10-55C3-4381-A51C-542CD7C9C2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BB0615-149F-4095-B74E-CE9D1F4E9C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trees" sheetId="1" r:id="rId1"/>
     <sheet name="Abilitys" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
   <si>
     <t>##var</t>
   </si>
@@ -163,6 +164,10 @@
   </si>
   <si>
     <t>script_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能树</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -822,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC15A313-98CA-4B90-B0D8-70658DEA93FA}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1025,4 +1030,25 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E50E85E-DB1B-4179-81B5-4B8393A8EE4A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DataBase/Datas/Skills.xlsx
+++ b/DataBase/Datas/Skills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BB0615-149F-4095-B74E-CE9D1F4E9C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8324C1-5993-475E-A579-62291A6BBFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trees" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
   <si>
     <t>##var</t>
   </si>
@@ -159,15 +159,54 @@
     <t>FireBall</t>
   </si>
   <si>
-    <t>FireBall</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>script_name</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>技能树</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴风雪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行走时出现暴风雪，AOE打击。消耗蓝量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>泥头车</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续冲刺，造成伤害，消耗蓝量和血量。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试技能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放暴风雪，在范围内造成AOE伤害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SnowStorms</t>
+  </si>
+  <si>
+    <t>相位猛冲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开冲！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rush</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -827,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC15A313-98CA-4B90-B0D8-70658DEA93FA}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -836,7 +875,7 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.875" customWidth="1"/>
     <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -863,7 +902,7 @@
         <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -936,10 +975,10 @@
         <v>4001</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>24</v>
@@ -951,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -960,10 +999,10 @@
         <v>4002</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>24</v>
@@ -984,10 +1023,10 @@
         <v>4003</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>24</v>
@@ -999,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -1008,7 +1047,7 @@
         <v>4004</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>31</v>
@@ -1034,17 +1073,36 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E50E85E-DB1B-4179-81B5-4B8393A8EE4A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/Datas/Skills.xlsx
+++ b/DataBase/Datas/Skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8324C1-5993-475E-A579-62291A6BBFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3D66D4-E845-4AF8-98A4-31B42789A3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
   <si>
     <t>##var</t>
   </si>
@@ -187,14 +187,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>测试技能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放暴风雪，在范围内造成AOE伤害。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SnowStorms</t>
   </si>
   <si>
@@ -202,11 +194,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>开冲！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Rush</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开冲！速度 +200，持续 3 秒。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋风斩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放暴风雪，在范围内造成 AOE 伤害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WhirlWind</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放旋风斩，造成 AOE 伤害。持续 5 秒。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -864,17 +872,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC15A313-98CA-4B90-B0D8-70658DEA93FA}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.75" customWidth="1"/>
     <col min="4" max="4" width="30.875" customWidth="1"/>
     <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
@@ -978,7 +986,7 @@
         <v>37</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>24</v>
@@ -990,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -1023,10 +1031,10 @@
         <v>4003</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>24</v>
@@ -1038,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -1047,10 +1055,10 @@
         <v>4004</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>24</v>
@@ -1062,8 +1070,48 @@
         <v>0</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/DataBase/Datas/Skills.xlsx
+++ b/DataBase/Datas/Skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3D66D4-E845-4AF8-98A4-31B42789A3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD16824B-16E5-4F0D-ADC3-B453C6B39C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="65">
   <si>
     <t>##var</t>
   </si>
@@ -152,17 +152,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>技能类名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>FireBall</t>
   </si>
   <si>
-    <t>script_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>技能树</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -198,10 +190,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>开冲！速度 +200，持续 3 秒。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>旋风斩</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -215,6 +203,82 @@
   </si>
   <si>
     <t>释放旋风斩，造成 AOE 伤害。持续 5 秒。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击时释放</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导时释放</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>击中时施加诅咒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击时释放绑定的辅助技能。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导时释放绑定的辅助技能。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>击中时为敌人增加绑定的诅咒。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CastOnCritical</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CastOnCasting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffOnHit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>running_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否持久有效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>scene_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>global</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是世界技能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开冲！速度 +200，持续 5 秒。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -872,22 +936,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC15A313-98CA-4B90-B0D8-70658DEA93FA}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.75" customWidth="1"/>
-    <col min="4" max="4" width="30.875" customWidth="1"/>
+    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.125" customWidth="1"/>
     <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" customWidth="1"/>
+    <col min="7" max="8" width="5.625" customWidth="1"/>
+    <col min="9" max="9" width="7.25" customWidth="1"/>
+    <col min="10" max="10" width="13.875" customWidth="1"/>
+    <col min="11" max="11" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -904,16 +973,25 @@
         <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="I1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -930,16 +1008,25 @@
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -950,8 +1037,11 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -968,40 +1058,58 @@
         <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="I4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>4001</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="3" t="b">
         <v>1</v>
       </c>
       <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>5</v>
+      </c>
+      <c r="J5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
         <v>4002</v>
@@ -1015,95 +1123,191 @@
       <c r="E6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
         <v>1</v>
       </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>5</v>
+      </c>
+      <c r="J6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3">
         <v>4003</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
         <v>1</v>
       </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>5</v>
+      </c>
+      <c r="J7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3">
         <v>4004</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>1</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>5</v>
+      </c>
+      <c r="J8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3">
+        <v>4005</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3">
+        <v>4006</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="D10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B11" s="3">
+        <v>4007</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1112,6 +1316,9 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1131,26 +1338,26 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
         <v>36</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/Datas/Skills.xlsx
+++ b/DataBase/Datas/Skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD16824B-16E5-4F0D-ADC3-B453C6B39C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AC2424-1B89-4342-AFEE-10089D5148C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -939,7 +939,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1124,7 +1124,7 @@
         <v>24</v>
       </c>
       <c r="F6" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="3">
         <v>1</v>

--- a/DataBase/Datas/Skills.xlsx
+++ b/DataBase/Datas/Skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AC2424-1B89-4342-AFEE-10089D5148C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E593851-2A57-487D-ADC2-85AC59288B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="65">
   <si>
     <t>##var</t>
   </si>
@@ -936,10 +936,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC15A313-98CA-4B90-B0D8-70658DEA93FA}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1209,7 +1209,9 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="B9" s="3">
         <v>4005</v>
       </c>
@@ -1242,7 +1244,9 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="B10" s="3">
         <v>4006</v>
       </c>
@@ -1275,7 +1279,9 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
+      <c r="A11" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="B11" s="3">
         <v>4007</v>
       </c>
@@ -1319,6 +1325,42 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/DataBase/Datas/Skills.xlsx
+++ b/DataBase/Datas/Skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E593851-2A57-487D-ADC2-85AC59288B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B83A9D-EB72-4C47-A52B-510692DC3037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="65">
   <si>
     <t>##var</t>
   </si>
@@ -939,7 +939,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:K15"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1209,9 +1209,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A9" s="3"/>
       <c r="B9" s="3">
         <v>4005</v>
       </c>

--- a/DataBase/Datas/Skills.xlsx
+++ b/DataBase/Datas/Skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B83A9D-EB72-4C47-A52B-510692DC3037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434D63A1-E231-4137-8EC5-D5739DAAC52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="69">
   <si>
     <t>##var</t>
   </si>
@@ -279,6 +279,22 @@
   </si>
   <si>
     <t>开冲！速度 +200，持续 5 秒。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -936,10 +952,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC15A313-98CA-4B90-B0D8-70658DEA93FA}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -950,13 +966,15 @@
     <col min="4" max="4" width="29.125" customWidth="1"/>
     <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.375" customWidth="1"/>
-    <col min="7" max="8" width="5.625" customWidth="1"/>
-    <col min="9" max="9" width="7.25" customWidth="1"/>
-    <col min="10" max="10" width="13.875" customWidth="1"/>
-    <col min="11" max="11" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="10" width="5.625" customWidth="1"/>
+    <col min="11" max="11" width="7.25" customWidth="1"/>
+    <col min="12" max="12" width="13.875" customWidth="1"/>
+    <col min="13" max="13" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -975,23 +993,25 @@
       <c r="F1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1010,23 +1030,25 @@
       <c r="F2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1040,8 +1062,10 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1061,22 +1085,28 @@
         <v>63</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>4001</v>
@@ -1093,23 +1123,29 @@
       <c r="F5" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="3">
+        <v>20</v>
+      </c>
+      <c r="I5" s="3">
         <v>1</v>
       </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
         <v>5</v>
       </c>
-      <c r="J5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
         <v>4002</v>
@@ -1126,23 +1162,29 @@
       <c r="F6" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="3">
+        <v>20</v>
+      </c>
+      <c r="I6" s="3">
         <v>1</v>
       </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
         <v>5</v>
       </c>
-      <c r="J6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3">
         <v>4003</v>
@@ -1159,23 +1201,29 @@
       <c r="F7" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="3">
+        <v>20</v>
+      </c>
+      <c r="I7" s="3">
         <v>1</v>
       </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
         <v>5</v>
       </c>
-      <c r="J7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3">
         <v>4004</v>
@@ -1192,23 +1240,29 @@
       <c r="F8" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="3">
+        <v>20</v>
+      </c>
+      <c r="I8" s="3">
         <v>1</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>5</v>
       </c>
-      <c r="J8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3">
         <v>4005</v>
@@ -1225,23 +1279,29 @@
       <c r="F9" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="3">
+        <v>20</v>
+      </c>
+      <c r="I9" s="3">
         <v>1</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3" t="b">
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -1260,23 +1320,29 @@
       <c r="F10" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="3">
+        <v>20</v>
+      </c>
+      <c r="I10" s="3">
         <v>1</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3" t="b">
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -1295,23 +1361,29 @@
       <c r="F11" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="3">
+        <v>20</v>
+      </c>
+      <c r="I11" s="3">
         <v>1</v>
       </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0</v>
-      </c>
-      <c r="J11" s="3" t="b">
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1323,8 +1395,10 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1335,8 +1409,10 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1347,8 +1423,10 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1359,6 +1437,8 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/DataBase/Datas/Skills.xlsx
+++ b/DataBase/Datas/Skills.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434D63A1-E231-4137-8EC5-D5739DAAC52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957D1D54-4B03-456E-A82D-6408BC3973CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>##var</t>
   </si>
@@ -116,14 +116,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>图标路径</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://icon.svg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>cooldown</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -295,6 +287,95 @@
   </si>
   <si>
     <t>MP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命药剂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即恢复 88 生命。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HealthPotion.png</t>
+  </si>
+  <si>
+    <t>Blizzard.png</t>
+  </si>
+  <si>
+    <t>图标名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireBall.png</t>
+  </si>
+  <si>
+    <t>Rush.png</t>
+  </si>
+  <si>
+    <t>Whirlwind.png</t>
+  </si>
+  <si>
+    <t>Coc.png</t>
+  </si>
+  <si>
+    <t>HealthPoint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电猛冲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LightRush.png</t>
+  </si>
+  <si>
+    <t>速度 +200，持续 5 秒，并对路径上的敌人造成 50% 闪电伤害。一路火花带闪电~</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlamingMeteor.png</t>
+  </si>
+  <si>
+    <t>火焰流星</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤一群火焰流星。每颗流星造成 10% 的火焰伤害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BloodDance.png</t>
+  </si>
+  <si>
+    <t>鲜血舞蹈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每损失 100 点生命，获得 10% 的攻速、速度、伤害加成。最高为 200%。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SomethingCraw.png</t>
+  </si>
+  <si>
+    <t>有东西爬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThunderBind.png</t>
+  </si>
+  <si>
+    <t>雷电束缚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>束缚附近最多 5 个敌人，并每秒造成 1% 雷电伤害。持续五秒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LightRush</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -952,10 +1033,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC15A313-98CA-4B90-B0D8-70658DEA93FA}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -963,8 +1044,8 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.125" customWidth="1"/>
-    <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.625" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="14.375" customWidth="1"/>
     <col min="7" max="7" width="9.75" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
@@ -991,24 +1072,24 @@
         <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.35">
@@ -1028,21 +1109,21 @@
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>6</v>
@@ -1079,31 +1160,31 @@
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.35">
@@ -1112,19 +1193,19 @@
         <v>4001</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="F5" s="3" t="b">
         <v>1</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H5" s="3">
         <v>20</v>
@@ -1142,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
@@ -1151,19 +1232,19 @@
         <v>4002</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="F6" s="3" t="b">
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H6" s="3">
         <v>20</v>
@@ -1181,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.35">
@@ -1190,19 +1271,19 @@
         <v>4003</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="F7" s="3" t="b">
         <v>0</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H7" s="3">
         <v>20</v>
@@ -1220,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="18" x14ac:dyDescent="0.35">
@@ -1229,19 +1310,19 @@
         <v>4004</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="F8" s="3" t="b">
         <v>0</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H8" s="3">
         <v>20</v>
@@ -1259,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.35">
@@ -1268,19 +1349,19 @@
         <v>4005</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="F9" s="3" t="b">
         <v>0</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H9" s="3">
         <v>20</v>
@@ -1298,7 +1379,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.35">
@@ -1309,19 +1390,17 @@
         <v>4006</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="3" t="b">
         <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H10" s="3">
         <v>20</v>
@@ -1339,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.35">
@@ -1350,19 +1429,17 @@
         <v>4007</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E11" s="3"/>
       <c r="F11" s="3" t="b">
         <v>0</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H11" s="3">
         <v>20</v>
@@ -1380,65 +1457,467 @@
         <v>1</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+      <c r="A12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3">
+        <v>4008</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="3">
+        <v>20</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3">
+        <v>4006</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="3">
+        <v>20</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>5</v>
+      </c>
+      <c r="L13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="A14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="3">
+        <v>4010</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="3">
+        <v>20</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="M14" s="3"/>
     </row>
     <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="A15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="3">
+        <v>4011</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="3">
+        <v>20</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3">
+        <v>4012</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="3">
+        <v>20</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="3">
+        <v>4013</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="3">
+        <v>20</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1458,26 +1937,26 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
         <v>34</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/Datas/Skills.xlsx
+++ b/DataBase/Datas/Skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957D1D54-4B03-456E-A82D-6408BC3973CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF09D05-317D-4CD4-83C1-50B219F386B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="94">
   <si>
     <t>##var</t>
   </si>
@@ -282,10 +282,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>HP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>MP</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -376,6 +372,17 @@
   </si>
   <si>
     <t>LightRush</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffs.ECostType</t>
+  </si>
+  <si>
+    <t>cost_value</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1035,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC15A313-98CA-4B90-B0D8-70658DEA93FA}">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1074,8 +1081,12 @@
       <c r="F1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="I1" s="1" t="s">
         <v>23</v>
       </c>
@@ -1111,8 +1122,12 @@
       <c r="F2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="I2" s="2" t="s">
         <v>25</v>
       </c>
@@ -1160,7 +1175,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>61</v>
@@ -1199,13 +1214,13 @@
         <v>41</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F5" s="3" t="b">
         <v>1</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H5" s="3">
         <v>20</v>
@@ -1238,13 +1253,13 @@
         <v>29</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F6" s="3" t="b">
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H6" s="3">
         <v>20</v>
@@ -1277,13 +1292,13 @@
         <v>62</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F7" s="3" t="b">
         <v>0</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H7" s="3">
         <v>20</v>
@@ -1316,13 +1331,13 @@
         <v>43</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F8" s="3" t="b">
         <v>0</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H8" s="3">
         <v>20</v>
@@ -1355,7 +1370,7 @@
         <v>47</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F9" s="3" t="b">
         <v>0</v>
@@ -1468,13 +1483,13 @@
         <v>4008</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="F12" s="3" t="b">
         <v>0</v>
@@ -1498,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.35">
@@ -1507,13 +1522,13 @@
         <v>4006</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="F13" s="3" t="b">
         <v>0</v>
@@ -1537,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.35">
@@ -1548,13 +1563,13 @@
         <v>4010</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="E14" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F14" s="3" t="b">
         <v>0</v>
@@ -1587,13 +1602,13 @@
         <v>4011</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="E15" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F15" s="3" t="b">
         <v>0</v>
@@ -1626,11 +1641,11 @@
         <v>4012</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F16" s="3" t="b">
         <v>0</v>
@@ -1663,13 +1678,13 @@
         <v>4013</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="E17" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F17" s="3" t="b">
         <v>0</v>

--- a/DataBase/Datas/Skills.xlsx
+++ b/DataBase/Datas/Skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF09D05-317D-4CD4-83C1-50B219F386B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6F4A6A-B556-4DAA-9D3D-FA1293623309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -297,92 +297,96 @@
     <t>HealthPotion.png</t>
   </si>
   <si>
+    <t>图标名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireBall.png</t>
+  </si>
+  <si>
+    <t>Rush.png</t>
+  </si>
+  <si>
+    <t>Coc.png</t>
+  </si>
+  <si>
+    <t>HealthPoint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电猛冲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度 +200，持续 5 秒，并对路径上的敌人造成 50% 闪电伤害。一路火花带闪电~</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰流星</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤一群火焰流星。每颗流星造成 10% 的火焰伤害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BloodDance.png</t>
+  </si>
+  <si>
+    <t>鲜血舞蹈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每损失 100 点生命，获得 10% 的攻速、速度、伤害加成。最高为 200%。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SomethingCraw.png</t>
+  </si>
+  <si>
+    <t>有东西爬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThunderBind.png</t>
+  </si>
+  <si>
+    <t>雷电束缚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>束缚附近最多 5 个敌人，并每秒造成 1% 雷电伤害。持续五秒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LightRush</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffs.ECostType</t>
+  </si>
+  <si>
+    <t>cost_value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Blizzard.png</t>
-  </si>
-  <si>
-    <t>图标名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FireBall.png</t>
-  </si>
-  <si>
-    <t>Rush.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlamingMeteor.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LightRush.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Whirlwind.png</t>
-  </si>
-  <si>
-    <t>Coc.png</t>
-  </si>
-  <si>
-    <t>HealthPoint</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电猛冲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LightRush.png</t>
-  </si>
-  <si>
-    <t>速度 +200，持续 5 秒，并对路径上的敌人造成 50% 闪电伤害。一路火花带闪电~</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FlamingMeteor.png</t>
-  </si>
-  <si>
-    <t>火焰流星</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤一群火焰流星。每颗流星造成 10% 的火焰伤害。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BloodDance.png</t>
-  </si>
-  <si>
-    <t>鲜血舞蹈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每损失 100 点生命，获得 10% 的攻速、速度、伤害加成。最高为 200%。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SomethingCraw.png</t>
-  </si>
-  <si>
-    <t>有东西爬</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ThunderBind.png</t>
-  </si>
-  <si>
-    <t>雷电束缚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>束缚附近最多 5 个敌人，并每秒造成 1% 雷电伤害。持续五秒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LightRush</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cost_type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffs.ECostType</t>
-  </si>
-  <si>
-    <t>cost_value</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1042,8 +1046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC15A313-98CA-4B90-B0D8-70658DEA93FA}">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1082,10 +1086,10 @@
         <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>23</v>
@@ -1123,7 +1127,7 @@
         <v>56</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>25</v>
@@ -1175,7 +1179,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>61</v>
@@ -1214,7 +1218,7 @@
         <v>41</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="F5" s="3" t="b">
         <v>1</v>
@@ -1253,7 +1257,7 @@
         <v>29</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F6" s="3" t="b">
         <v>1</v>
@@ -1292,7 +1296,7 @@
         <v>62</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F7" s="3" t="b">
         <v>0</v>
@@ -1331,7 +1335,7 @@
         <v>43</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="F8" s="3" t="b">
         <v>0</v>
@@ -1370,7 +1374,7 @@
         <v>47</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F9" s="3" t="b">
         <v>0</v>
@@ -1513,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.35">
@@ -1522,13 +1526,13 @@
         <v>4006</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="F13" s="3" t="b">
         <v>0</v>
@@ -1552,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.35">
@@ -1563,13 +1567,13 @@
         <v>4010</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F14" s="3" t="b">
         <v>0</v>
@@ -1602,13 +1606,13 @@
         <v>4011</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F15" s="3" t="b">
         <v>0</v>
@@ -1641,11 +1645,11 @@
         <v>4012</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F16" s="3" t="b">
         <v>0</v>
@@ -1678,13 +1682,13 @@
         <v>4013</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F17" s="3" t="b">
         <v>0</v>

--- a/DataBase/Datas/Skills.xlsx
+++ b/DataBase/Datas/Skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6F4A6A-B556-4DAA-9D3D-FA1293623309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF89E62-F978-4834-A124-61D632B72D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="96">
   <si>
     <t>##var</t>
   </si>
@@ -387,6 +387,14 @@
   </si>
   <si>
     <t>Whirlwind.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1044,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC15A313-98CA-4B90-B0D8-70658DEA93FA}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1056,17 +1064,17 @@
     <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.625" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="14.375" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="10" width="5.625" customWidth="1"/>
-    <col min="11" max="11" width="7.25" customWidth="1"/>
-    <col min="12" max="12" width="13.875" customWidth="1"/>
-    <col min="13" max="13" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="9.75" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="11" width="5.625" customWidth="1"/>
+    <col min="12" max="12" width="7.25" customWidth="1"/>
+    <col min="13" max="13" width="13.875" customWidth="1"/>
+    <col min="14" max="14" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1083,31 +1091,34 @@
         <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1124,13 +1135,13 @@
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>25</v>
@@ -1142,13 +1153,16 @@
         <v>25</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1164,8 +1178,9 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1182,31 +1197,34 @@
         <v>69</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>4001</v>
@@ -1220,32 +1238,35 @@
       <c r="E5" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F5" s="3" t="b">
+      <c r="F5" s="3">
+        <v>200</v>
+      </c>
+      <c r="G5" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="3">
         <v>20</v>
       </c>
-      <c r="I5" s="3">
+      <c r="J5" s="3">
         <v>1</v>
       </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
       <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
         <v>5</v>
       </c>
-      <c r="L5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
         <v>4002</v>
@@ -1259,32 +1280,35 @@
       <c r="E6" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="3" t="b">
+      <c r="F6" s="3">
+        <v>300</v>
+      </c>
+      <c r="G6" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="3">
         <v>20</v>
       </c>
-      <c r="I6" s="3">
+      <c r="J6" s="3">
         <v>1</v>
       </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
       <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
         <v>5</v>
       </c>
-      <c r="L6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3">
         <v>4003</v>
@@ -1298,32 +1322,35 @@
       <c r="E7" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="F7" s="3">
+        <v>200</v>
+      </c>
+      <c r="G7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="3">
         <v>20</v>
       </c>
-      <c r="I7" s="3">
+      <c r="J7" s="3">
         <v>1</v>
       </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
       <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
         <v>5</v>
       </c>
-      <c r="L7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3">
         <v>4004</v>
@@ -1337,32 +1364,35 @@
       <c r="E8" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="F8" s="3">
+        <v>300</v>
+      </c>
+      <c r="G8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>20</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>5</v>
       </c>
-      <c r="L8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3" t="s">
+      <c r="M8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3">
         <v>4005</v>
@@ -1376,32 +1406,35 @@
       <c r="E9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="F9" s="3">
+        <v>300</v>
+      </c>
+      <c r="G9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>20</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
       <c r="K9" s="3">
         <v>0</v>
       </c>
-      <c r="L9" s="3" t="b">
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -1415,32 +1448,35 @@
         <v>48</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="F10" s="3">
+        <v>300</v>
+      </c>
+      <c r="G10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>20</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
       <c r="K10" s="3">
         <v>0</v>
       </c>
-      <c r="L10" s="3" t="b">
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -1454,32 +1490,35 @@
         <v>49</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="F11" s="3">
+        <v>300</v>
+      </c>
+      <c r="G11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="3">
+      <c r="I11" s="3">
         <v>20</v>
       </c>
-      <c r="I11" s="3">
+      <c r="J11" s="3">
         <v>1</v>
       </c>
-      <c r="J11" s="3">
-        <v>0</v>
-      </c>
       <c r="K11" s="3">
         <v>0</v>
       </c>
-      <c r="L11" s="3" t="b">
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
@@ -1495,32 +1534,35 @@
       <c r="E12" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="F12" s="3">
+        <v>300</v>
+      </c>
+      <c r="G12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>20</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
       <c r="K12" s="3">
         <v>0</v>
       </c>
-      <c r="L12" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3" t="s">
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="3">
         <v>4006</v>
@@ -1534,32 +1576,35 @@
       <c r="E13" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="F13" s="3">
+        <v>300</v>
+      </c>
+      <c r="G13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="3">
+      <c r="I13" s="3">
         <v>20</v>
       </c>
-      <c r="I13" s="3">
+      <c r="J13" s="3">
         <v>1</v>
       </c>
-      <c r="J13" s="3">
-        <v>0</v>
-      </c>
       <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
         <v>5</v>
       </c>
-      <c r="L13" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M13" s="3" t="s">
+      <c r="M13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
@@ -1575,30 +1620,33 @@
       <c r="E14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="3">
+        <v>300</v>
+      </c>
+      <c r="G14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>20</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
@@ -1614,30 +1662,33 @@
       <c r="E15" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F15" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3" t="s">
+      <c r="F15" s="3">
+        <v>300</v>
+      </c>
+      <c r="G15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>20</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
@@ -1651,30 +1702,33 @@
       <c r="E16" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3" t="s">
+      <c r="F16" s="3">
+        <v>300</v>
+      </c>
+      <c r="G16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H16" s="3">
+      <c r="I16" s="3">
         <v>20</v>
       </c>
-      <c r="I16" s="3">
+      <c r="J16" s="3">
         <v>1</v>
       </c>
-      <c r="J16" s="3">
-        <v>0</v>
-      </c>
       <c r="K16" s="3">
         <v>0</v>
       </c>
-      <c r="L16" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
@@ -1690,30 +1744,33 @@
       <c r="E17" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F17" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3" t="s">
+      <c r="F17" s="3">
+        <v>300</v>
+      </c>
+      <c r="G17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>20</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
         <v>0</v>
       </c>
-      <c r="L17" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1727,8 +1784,9 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1742,8 +1800,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1757,8 +1816,9 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1772,8 +1832,9 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1787,8 +1848,9 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1802,8 +1864,9 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1817,8 +1880,9 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1832,8 +1896,9 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1847,8 +1912,9 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1862,8 +1928,9 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1877,8 +1944,9 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1892,8 +1960,9 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1907,8 +1976,9 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1922,8 +1992,9 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1937,6 +2008,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/DataBase/Datas/Skills.xlsx
+++ b/DataBase/Datas/Skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF89E62-F978-4834-A124-61D632B72D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DF8843-1947-44C2-861B-8136D53F8724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="98">
   <si>
     <t>##var</t>
   </si>
@@ -186,10 +186,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>释放暴风雪，在范围内造成 AOE 伤害。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>WhirlWind</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -330,71 +326,83 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>鲜血舞蹈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SomethingCraw.png</t>
+  </si>
+  <si>
+    <t>有东西爬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThunderBind.png</t>
+  </si>
+  <si>
+    <t>雷电束缚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>束缚附近最多 5 个敌人，并每秒造成 1% 雷电伤害。持续五秒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LightRush</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffs.ECostType</t>
+  </si>
+  <si>
+    <t>cost_value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blizzard.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlamingMeteor.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LightRush.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whirlwind.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放暴风雪，在范围内造成 10% 冰霜伤害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlamingMeteor</t>
+  </si>
+  <si>
     <t>BloodDance.png</t>
-  </si>
-  <si>
-    <t>鲜血舞蹈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每损失 100 点生命，获得 10% 的攻速、速度、伤害加成。最高为 200%。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SomethingCraw.png</t>
-  </si>
-  <si>
-    <t>有东西爬</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ThunderBind.png</t>
-  </si>
-  <si>
-    <t>雷电束缚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>束缚附近最多 5 个敌人，并每秒造成 1% 雷电伤害。持续五秒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LightRush</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cost_type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffs.ECostType</t>
-  </si>
-  <si>
-    <t>cost_value</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blizzard.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FlamingMeteor.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LightRush.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Whirlwind.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cost</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>价格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BloodDance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每损失 100 点生命，获得 10% 的攻速、速度、伤害加成。持续 3 秒。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1055,7 +1063,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1063,7 +1071,7 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.625" customWidth="1"/>
+    <col min="4" max="4" width="60.75" customWidth="1"/>
     <col min="5" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="9.75" customWidth="1"/>
@@ -1091,16 +1099,16 @@
         <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>23</v>
@@ -1109,13 +1117,13 @@
         <v>24</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1138,10 +1146,10 @@
         <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>25</v>
@@ -1156,7 +1164,7 @@
         <v>25</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>6</v>
@@ -1194,19 +1202,19 @@
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>26</v>
@@ -1215,13 +1223,13 @@
         <v>27</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1233,10 +1241,10 @@
         <v>33</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F5" s="3">
         <v>200</v>
@@ -1245,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I5" s="3">
         <v>20</v>
@@ -1278,7 +1286,7 @@
         <v>29</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F6" s="3">
         <v>300</v>
@@ -1287,7 +1295,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I6" s="3">
         <v>20</v>
@@ -1317,10 +1325,10 @@
         <v>38</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F7" s="3">
         <v>200</v>
@@ -1329,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I7" s="3">
         <v>20</v>
@@ -1359,10 +1367,10 @@
         <v>40</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F8" s="3">
         <v>300</v>
@@ -1371,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I8" s="3">
         <v>20</v>
@@ -1389,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1398,13 +1406,13 @@
         <v>4005</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F9" s="3">
         <v>300</v>
@@ -1413,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I9" s="3">
         <v>20</v>
@@ -1431,7 +1439,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1442,10 +1450,10 @@
         <v>4006</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3">
@@ -1455,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I10" s="3">
         <v>20</v>
@@ -1473,7 +1481,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1484,10 +1492,10 @@
         <v>4007</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3">
@@ -1497,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I11" s="3">
         <v>20</v>
@@ -1515,7 +1523,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1526,13 +1534,13 @@
         <v>4008</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="F12" s="3">
         <v>300</v>
@@ -1541,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I12" s="3">
         <v>20</v>
@@ -1559,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1568,13 +1576,13 @@
         <v>4006</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="E13" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F13" s="3">
         <v>300</v>
@@ -1583,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I13" s="3">
         <v>20</v>
@@ -1601,24 +1609,22 @@
         <v>0</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A14" s="3"/>
       <c r="B14" s="3">
-        <v>4010</v>
+        <v>4007</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="E14" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F14" s="3">
         <v>300</v>
@@ -1627,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I14" s="3">
         <v>20</v>
@@ -1639,28 +1645,28 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M14" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
+      <c r="N14" s="3" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="15" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A15" s="3"/>
       <c r="B15" s="3">
-        <v>4011</v>
+        <v>4008</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="F15" s="3">
         <v>300</v>
@@ -1669,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I15" s="3">
         <v>20</v>
@@ -1681,12 +1687,14 @@
         <v>0</v>
       </c>
       <c r="L15" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M15" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
+      <c r="N15" s="3" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="16" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
@@ -1696,11 +1704,11 @@
         <v>4012</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F16" s="3">
         <v>300</v>
@@ -1709,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I16" s="3">
         <v>20</v>
@@ -1736,13 +1744,13 @@
         <v>4013</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F17" s="3">
         <v>300</v>
@@ -1751,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I17" s="3">
         <v>20</v>

--- a/DataBase/Datas/Skills.xlsx
+++ b/DataBase/Datas/Skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DF8843-1947-44C2-861B-8136D53F8724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436F29ED-FBC6-4129-A50F-889397BF1565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="101">
   <si>
     <t>##var</t>
   </si>
@@ -403,6 +403,20 @@
   </si>
   <si>
     <t>每损失 100 点生命，获得 10% 的攻速、速度、伤害加成。持续 3 秒。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰锥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放该技能向前发射 1 个冰锥，击中时造成 240% 武器攻击伤害。
+冰锥击中敌人后产生爆炸，击中时造成 120% 武器攻击伤害。
+该技能 20% 物理伤害转化为冰冷伤害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IceShot</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -508,7 +522,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -524,6 +538,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1062,8 +1079,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC15A313-98CA-4B90-B0D8-70658DEA93FA}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1778,21 +1797,47 @@
       </c>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" ht="54" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
+      <c r="B18" s="3">
+        <v>4014</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="3">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="19" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>

--- a/DataBase/Datas/Skills.xlsx
+++ b/DataBase/Datas/Skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436F29ED-FBC6-4129-A50F-889397BF1565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F57050-050A-40EA-BF33-7AE418C0B042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -527,6 +527,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -538,9 +541,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -854,11 +854,11 @@
       <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -876,11 +876,11 @@
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -890,9 +890,9 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -910,11 +910,11 @@
       <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
@@ -1079,10 +1079,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC15A313-98CA-4B90-B0D8-70658DEA93FA}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="N19" sqref="N19"/>
+      <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1800,12 +1800,12 @@
     <row r="18" spans="1:14" ht="54" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3">
-        <v>4014</v>
+        <v>4009</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="4" t="s">
         <v>99</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M18" s="3" t="b">
         <v>0</v>

--- a/DataBase/Datas/Skills.xlsx
+++ b/DataBase/Datas/Skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F57050-050A-40EA-BF33-7AE418C0B042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5ECE5D-757D-4717-B43D-00E82244FDEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -190,10 +190,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>释放旋风斩，造成 AOE 伤害。持续 5 秒。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>暴击时释放</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -417,6 +413,12 @@
   </si>
   <si>
     <t>IceShot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导该技能时不断对自身一定范围内的敌人造成 37% 武器攻击伤害。
+引导层数达到上限时，失去所有引导层数并有几率释放风刃，击中时造成 94% 武器攻击伤害。
+引导该技能时可以移动。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1082,7 +1084,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1118,16 +1120,16 @@
         <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>23</v>
@@ -1136,13 +1138,13 @@
         <v>24</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1165,10 +1167,10 @@
         <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>25</v>
@@ -1183,7 +1185,7 @@
         <v>25</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>6</v>
@@ -1221,19 +1223,19 @@
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>26</v>
@@ -1242,13 +1244,13 @@
         <v>27</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1260,10 +1262,10 @@
         <v>33</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F5" s="3">
         <v>200</v>
@@ -1272,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I5" s="3">
         <v>20</v>
@@ -1305,7 +1307,7 @@
         <v>29</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F6" s="3">
         <v>300</v>
@@ -1314,7 +1316,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I6" s="3">
         <v>20</v>
@@ -1344,10 +1346,10 @@
         <v>38</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F7" s="3">
         <v>200</v>
@@ -1356,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I7" s="3">
         <v>20</v>
@@ -1377,7 +1379,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="72" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3">
         <v>4004</v>
@@ -1385,11 +1387,11 @@
       <c r="C8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>42</v>
+      <c r="D8" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F8" s="3">
         <v>300</v>
@@ -1398,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I8" s="3">
         <v>20</v>
@@ -1425,13 +1427,13 @@
         <v>4005</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F9" s="3">
         <v>300</v>
@@ -1440,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I9" s="3">
         <v>20</v>
@@ -1458,7 +1460,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1469,10 +1471,10 @@
         <v>4006</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3">
@@ -1482,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I10" s="3">
         <v>20</v>
@@ -1500,7 +1502,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1511,10 +1513,10 @@
         <v>4007</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3">
@@ -1524,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I11" s="3">
         <v>20</v>
@@ -1542,7 +1544,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1553,13 +1555,13 @@
         <v>4008</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="F12" s="3">
         <v>300</v>
@@ -1568,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I12" s="3">
         <v>20</v>
@@ -1586,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1595,13 +1597,13 @@
         <v>4006</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="E13" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F13" s="3">
         <v>300</v>
@@ -1610,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I13" s="3">
         <v>20</v>
@@ -1628,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1637,13 +1639,13 @@
         <v>4007</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="E14" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F14" s="3">
         <v>300</v>
@@ -1652,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I14" s="3">
         <v>20</v>
@@ -1670,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1679,13 +1681,13 @@
         <v>4008</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F15" s="3">
         <v>300</v>
@@ -1694,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I15" s="3">
         <v>20</v>
@@ -1712,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1723,11 +1725,11 @@
         <v>4012</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F16" s="3">
         <v>300</v>
@@ -1736,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I16" s="3">
         <v>20</v>
@@ -1763,13 +1765,13 @@
         <v>4013</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="E17" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F17" s="3">
         <v>300</v>
@@ -1778,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I17" s="3">
         <v>20</v>
@@ -1803,13 +1805,13 @@
         <v>4009</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="E18" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F18" s="3">
         <v>3300</v>
@@ -1818,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I18" s="3">
         <v>5</v>
@@ -1836,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="18" x14ac:dyDescent="0.35">

--- a/DataBase/Datas/Skills.xlsx
+++ b/DataBase/Datas/Skills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5ECE5D-757D-4717-B43D-00E82244FDEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62328422-8800-4E76-A621-FA632E36E208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trees" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="103">
   <si>
     <t>##var</t>
   </si>
@@ -73,14 +73,6 @@
   </si>
   <si>
     <t>狂怒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>next_skill_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下一个技能ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -419,6 +411,22 @@
     <t>引导该技能时不断对自身一定范围内的敌人造成 37% 武器攻击伤害。
 引导层数达到上限时，失去所有引导层数并有几率释放风刃，击中时造成 94% 武器攻击伤害。
 引导该技能时可以移动。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>厉害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>好好好</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aa</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -824,10 +832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -836,11 +844,10 @@
     <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -853,16 +860,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="F1" s="6"/>
       <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -875,28 +879,24 @@
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="E2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -909,19 +909,16 @@
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="E4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
-        <v>3001</v>
+        <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>12</v>
@@ -929,92 +926,90 @@
       <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3">
-        <v>3002</v>
-      </c>
+      <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
-        <v>3002</v>
+        <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6" s="3">
-        <v>3003</v>
-      </c>
-      <c r="G6" s="3">
-        <v>3004</v>
-      </c>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3">
-        <v>3003</v>
+        <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
+      <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3">
-        <v>3004</v>
+        <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="B9" s="3">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="B10" s="3">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1022,9 +1017,8 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1032,9 +1026,8 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1042,9 +1035,8 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1052,9 +1044,8 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1062,14 +1053,13 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1081,7 +1071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC15A313-98CA-4B90-B0D8-70658DEA93FA}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
@@ -1117,34 +1107,34 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="L1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1167,25 +1157,25 @@
         <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>6</v>
@@ -1223,34 +1213,34 @@
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="I4" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1259,13 +1249,13 @@
         <v>4001</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F5" s="3">
         <v>200</v>
@@ -1274,7 +1264,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I5" s="3">
         <v>20</v>
@@ -1292,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1301,13 +1291,13 @@
         <v>4002</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F6" s="3">
         <v>300</v>
@@ -1316,7 +1306,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I6" s="3">
         <v>20</v>
@@ -1334,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1343,13 +1333,13 @@
         <v>4003</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F7" s="3">
         <v>200</v>
@@ -1358,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I7" s="3">
         <v>20</v>
@@ -1376,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="72" x14ac:dyDescent="0.35">
@@ -1385,13 +1375,13 @@
         <v>4004</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F8" s="3">
         <v>300</v>
@@ -1400,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I8" s="3">
         <v>20</v>
@@ -1418,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1427,13 +1417,13 @@
         <v>4005</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F9" s="3">
         <v>300</v>
@@ -1442,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I9" s="3">
         <v>20</v>
@@ -1460,7 +1450,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1471,10 +1461,10 @@
         <v>4006</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3">
@@ -1484,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I10" s="3">
         <v>20</v>
@@ -1502,7 +1492,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1513,10 +1503,10 @@
         <v>4007</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3">
@@ -1526,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I11" s="3">
         <v>20</v>
@@ -1544,7 +1534,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1555,13 +1545,13 @@
         <v>4008</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="F12" s="3">
         <v>300</v>
@@ -1570,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I12" s="3">
         <v>20</v>
@@ -1588,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1597,13 +1587,13 @@
         <v>4006</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F13" s="3">
         <v>300</v>
@@ -1612,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I13" s="3">
         <v>20</v>
@@ -1630,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1639,13 +1629,13 @@
         <v>4007</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F14" s="3">
         <v>300</v>
@@ -1654,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I14" s="3">
         <v>20</v>
@@ -1672,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1681,13 +1671,13 @@
         <v>4008</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F15" s="3">
         <v>300</v>
@@ -1696,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="3">
         <v>20</v>
@@ -1714,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1725,11 +1715,11 @@
         <v>4012</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F16" s="3">
         <v>300</v>
@@ -1738,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="3">
         <v>20</v>
@@ -1765,13 +1755,13 @@
         <v>4013</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F17" s="3">
         <v>300</v>
@@ -1780,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I17" s="3">
         <v>20</v>
@@ -1805,13 +1795,13 @@
         <v>4009</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F18" s="3">
         <v>3300</v>
@@ -1820,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I18" s="3">
         <v>5</v>
@@ -1838,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -2083,26 +2073,26 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
         <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/Datas/Skills.xlsx
+++ b/DataBase/Datas/Skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62328422-8800-4E76-A621-FA632E36E208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12EA2B6-FF2F-4346-A5B7-78BB36517558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="108">
   <si>
     <t>##var</t>
   </si>
@@ -428,6 +428,24 @@
   <si>
     <t>aa</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://Assets/Texture/Icons/Skills/Blizzard.png</t>
+  </si>
+  <si>
+    <t>res://Assets/Texture/Icons/Skills/BloodDance.png</t>
   </si>
 </sst>
 </file>
@@ -832,10 +850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -844,10 +862,12 @@
     <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="8" width="2.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -860,13 +880,19 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -879,24 +905,32 @@
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -909,13 +943,15 @@
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>0</v>
@@ -926,11 +962,17 @@
       <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
       <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
         <v>1</v>
@@ -941,15 +983,21 @@
       <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
         <v>2</v>
       </c>
-      <c r="F6" s="3">
+      <c r="H6" s="3">
         <v>3</v>
       </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3">
         <v>2</v>
@@ -960,11 +1008,17 @@
       <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
       <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3">
         <v>3</v>
@@ -975,11 +1029,17 @@
       <c r="D8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
       <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3">
         <v>4</v>
@@ -990,11 +1050,17 @@
       <c r="D9" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
       <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="3">
         <v>5</v>
@@ -1005,38 +1071,80 @@
       <c r="D10" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
       <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="B11" s="3">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>7</v>
+      </c>
+      <c r="H11" s="3">
+        <v>8</v>
+      </c>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="B12" s="3">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
       <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="B13" s="3">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
       <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1044,8 +1152,10 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1053,13 +1163,15 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataBase/Datas/Skills.xlsx
+++ b/DataBase/Datas/Skills.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12EA2B6-FF2F-4346-A5B7-78BB36517558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF000A3-0709-4D1E-B86C-2ED33460EDD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="103">
   <si>
     <t>##var</t>
   </si>
@@ -69,34 +69,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>火焰伤害 + {s}。</t>
-  </si>
-  <si>
-    <t>狂怒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>child_skills</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>array,int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂怒2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>灼烧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>猛冲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理伤害 + {s}。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -414,38 +391,43 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>厉害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>好好好</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>强大</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>aa</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>aaa</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://Assets/Texture/Icons/Skills/Blizzard.png</t>
-  </si>
-  <si>
-    <t>res://Assets/Texture/Icons/Skills/BloodDance.png</t>
+    <t>res://icon.svg</t>
+  </si>
+  <si>
+    <t>buff_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏娃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷、力量、智慧 + 5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理伤害 + 10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有元素伤害 + 10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避率 + 10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://icon.svg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -850,24 +832,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F13"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="8" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.75" customWidth="1"/>
+    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="2.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -881,18 +864,21 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="6"/>
+        <v>82</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="I1" s="6"/>
-    </row>
-    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -911,13 +897,16 @@
       <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="8"/>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -926,11 +915,12 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="7"/>
       <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -945,25 +935,26 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="8"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -971,45 +962,47 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3">
         <v>2</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="3">
         <v>3</v>
       </c>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="J6" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3">
         <v>2</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
@@ -1017,20 +1010,19 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3">
         <v>3</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -1038,20 +1030,19 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3">
         <v>4</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="E9" s="3" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
@@ -1059,92 +1050,57 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
-      <c r="B10" s="3">
-        <v>5</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
-      <c r="B11" s="3">
-        <v>6</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>7</v>
-      </c>
-      <c r="H11" s="3">
-        <v>8</v>
-      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
-      <c r="B12" s="3">
-        <v>7</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>104</v>
-      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
-      <c r="B13" s="3">
-        <v>8</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>105</v>
-      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1154,8 +1110,9 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1165,13 +1122,26 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H4:J4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1219,34 +1189,34 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1269,25 +1239,25 @@
         <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>6</v>
@@ -1325,34 +1295,34 @@
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1361,13 +1331,13 @@
         <v>4001</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F5" s="3">
         <v>200</v>
@@ -1376,7 +1346,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I5" s="3">
         <v>20</v>
@@ -1394,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1403,13 +1373,13 @@
         <v>4002</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F6" s="3">
         <v>300</v>
@@ -1418,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I6" s="3">
         <v>20</v>
@@ -1436,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1445,13 +1415,13 @@
         <v>4003</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F7" s="3">
         <v>200</v>
@@ -1460,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I7" s="3">
         <v>20</v>
@@ -1478,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="72" x14ac:dyDescent="0.35">
@@ -1487,13 +1457,13 @@
         <v>4004</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F8" s="3">
         <v>300</v>
@@ -1502,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I8" s="3">
         <v>20</v>
@@ -1520,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1529,13 +1499,13 @@
         <v>4005</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F9" s="3">
         <v>300</v>
@@ -1544,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I9" s="3">
         <v>20</v>
@@ -1562,7 +1532,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1573,10 +1543,10 @@
         <v>4006</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3">
@@ -1586,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I10" s="3">
         <v>20</v>
@@ -1604,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1615,10 +1585,10 @@
         <v>4007</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3">
@@ -1628,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I11" s="3">
         <v>20</v>
@@ -1646,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1657,13 +1627,13 @@
         <v>4008</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F12" s="3">
         <v>300</v>
@@ -1672,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I12" s="3">
         <v>20</v>
@@ -1690,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1699,13 +1669,13 @@
         <v>4006</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F13" s="3">
         <v>300</v>
@@ -1714,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I13" s="3">
         <v>20</v>
@@ -1732,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1741,13 +1711,13 @@
         <v>4007</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F14" s="3">
         <v>300</v>
@@ -1756,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I14" s="3">
         <v>20</v>
@@ -1774,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1783,13 +1753,13 @@
         <v>4008</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F15" s="3">
         <v>300</v>
@@ -1798,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I15" s="3">
         <v>20</v>
@@ -1816,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1827,11 +1797,11 @@
         <v>4012</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F16" s="3">
         <v>300</v>
@@ -1840,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I16" s="3">
         <v>20</v>
@@ -1867,13 +1837,13 @@
         <v>4013</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F17" s="3">
         <v>300</v>
@@ -1882,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I17" s="3">
         <v>20</v>
@@ -1907,13 +1877,13 @@
         <v>4009</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F18" s="3">
         <v>3300</v>
@@ -1922,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I18" s="3">
         <v>5</v>
@@ -1940,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -2185,26 +2155,26 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/Datas/Skills.xlsx
+++ b/DataBase/Datas/Skills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF000A3-0709-4D1E-B86C-2ED33460EDD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746EC68D-F370-4579-827A-B78533279103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trees" sheetId="1" r:id="rId1"/>
@@ -109,10 +109,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>释放一个火球。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>FireBall</t>
   </si>
   <si>
@@ -385,12 +381,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>引导该技能时不断对自身一定范围内的敌人造成 37% 武器攻击伤害。
-引导层数达到上限时，失去所有引导层数并有几率释放风刃，击中时造成 94% 武器攻击伤害。
-引导该技能时可以移动。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>res://icon.svg</t>
   </si>
   <si>
@@ -427,6 +417,14 @@
   </si>
   <si>
     <t>开始！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不断对自身一定范围内的敌人造成 37% 武器攻击伤害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放该技能向前发射 1 个火球，击中时造成 240% 武器攻击伤害。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -834,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -867,10 +865,10 @@
         <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>11</v>
@@ -948,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -970,13 +968,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -999,10 +997,10 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
@@ -1019,10 +1017,10 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -1039,10 +1037,10 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
@@ -1153,10 +1151,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC15A313-98CA-4B90-B0D8-70658DEA93FA}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1192,16 +1190,16 @@
         <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>15</v>
@@ -1210,13 +1208,13 @@
         <v>16</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1239,10 +1237,10 @@
         <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>17</v>
@@ -1257,7 +1255,7 @@
         <v>17</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>6</v>
@@ -1295,19 +1293,19 @@
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>18</v>
@@ -1316,13 +1314,13 @@
         <v>19</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1331,13 +1329,13 @@
         <v>4001</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F5" s="3">
         <v>200</v>
@@ -1346,7 +1344,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I5" s="3">
         <v>20</v>
@@ -1364,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1376,10 +1374,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F6" s="3">
         <v>300</v>
@@ -1388,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I6" s="3">
         <v>20</v>
@@ -1406,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1415,13 +1413,13 @@
         <v>4003</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F7" s="3">
         <v>200</v>
@@ -1430,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I7" s="3">
         <v>20</v>
@@ -1448,22 +1446,22 @@
         <v>0</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="72" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3">
         <v>4004</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F8" s="3">
         <v>300</v>
@@ -1472,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I8" s="3">
         <v>20</v>
@@ -1490,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1499,13 +1497,13 @@
         <v>4005</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F9" s="3">
         <v>300</v>
@@ -1514,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I9" s="3">
         <v>20</v>
@@ -1532,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1543,10 +1541,10 @@
         <v>4006</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3">
@@ -1556,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I10" s="3">
         <v>20</v>
@@ -1574,7 +1572,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1585,10 +1583,10 @@
         <v>4007</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3">
@@ -1598,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I11" s="3">
         <v>20</v>
@@ -1616,7 +1614,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1627,13 +1625,13 @@
         <v>4008</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="F12" s="3">
         <v>300</v>
@@ -1642,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I12" s="3">
         <v>20</v>
@@ -1660,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1669,13 +1667,13 @@
         <v>4006</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="E13" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F13" s="3">
         <v>300</v>
@@ -1684,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I13" s="3">
         <v>20</v>
@@ -1702,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1711,13 +1709,13 @@
         <v>4007</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="E14" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F14" s="3">
         <v>300</v>
@@ -1726,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I14" s="3">
         <v>20</v>
@@ -1744,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1753,13 +1751,13 @@
         <v>4008</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F15" s="3">
         <v>300</v>
@@ -1768,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I15" s="3">
         <v>20</v>
@@ -1786,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1797,11 +1795,11 @@
         <v>4012</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F16" s="3">
         <v>300</v>
@@ -1810,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I16" s="3">
         <v>20</v>
@@ -1837,13 +1835,13 @@
         <v>4013</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="E17" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F17" s="3">
         <v>300</v>
@@ -1852,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I17" s="3">
         <v>20</v>
@@ -1877,13 +1875,13 @@
         <v>4009</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="E18" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F18" s="3">
         <v>3300</v>
@@ -1892,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I18" s="3">
         <v>5</v>
@@ -1910,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -2155,26 +2153,26 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
         <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/Datas/Skills.xlsx
+++ b/DataBase/Datas/Skills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746EC68D-F370-4579-827A-B78533279103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1704B2-C6BC-4086-877C-D05B3F367289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trees" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="100">
   <si>
     <t>##var</t>
   </si>
@@ -66,18 +66,6 @@
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>child_skills</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>array,int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>子技能</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -483,7 +471,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -502,53 +490,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -830,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -845,10 +797,9 @@
     <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="2.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -862,21 +813,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-    </row>
-    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -898,13 +844,8 @@
       <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -914,11 +855,8 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -934,123 +872,97 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="3">
-        <v>2</v>
-      </c>
-      <c r="I6" s="3">
-        <v>3</v>
-      </c>
-      <c r="J6" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3">
         <v>2</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3">
         <v>3</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
       </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3">
         <v>4</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
       </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1058,11 +970,8 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1070,11 +979,8 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1082,11 +988,8 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1094,11 +997,8 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1106,11 +1006,8 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1118,11 +1015,8 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1130,17 +1024,8 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="H4:J4"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1151,10 +1036,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC15A313-98CA-4B90-B0D8-70658DEA93FA}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1187,34 +1072,34 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1237,25 +1122,25 @@
         <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>6</v>
@@ -1293,34 +1178,34 @@
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="J4" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="N4" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1329,13 +1214,13 @@
         <v>4001</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F5" s="3">
         <v>200</v>
@@ -1344,7 +1229,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I5" s="3">
         <v>20</v>
@@ -1362,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1371,13 +1256,13 @@
         <v>4002</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F6" s="3">
         <v>300</v>
@@ -1386,7 +1271,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I6" s="3">
         <v>20</v>
@@ -1404,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1413,13 +1298,13 @@
         <v>4003</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F7" s="3">
         <v>200</v>
@@ -1428,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I7" s="3">
         <v>20</v>
@@ -1446,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1455,13 +1340,13 @@
         <v>4004</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F8" s="3">
         <v>300</v>
@@ -1470,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I8" s="3">
         <v>20</v>
@@ -1488,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1497,13 +1382,13 @@
         <v>4005</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="E9" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F9" s="3">
         <v>300</v>
@@ -1512,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I9" s="3">
         <v>20</v>
@@ -1530,7 +1415,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1541,10 +1426,10 @@
         <v>4006</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3">
@@ -1554,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I10" s="3">
         <v>20</v>
@@ -1572,7 +1457,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1583,10 +1468,10 @@
         <v>4007</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3">
@@ -1596,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I11" s="3">
         <v>20</v>
@@ -1614,7 +1499,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1625,13 +1510,13 @@
         <v>4008</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F12" s="3">
         <v>300</v>
@@ -1640,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I12" s="3">
         <v>20</v>
@@ -1658,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1667,13 +1552,13 @@
         <v>4006</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F13" s="3">
         <v>300</v>
@@ -1682,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I13" s="3">
         <v>20</v>
@@ -1700,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1709,13 +1594,13 @@
         <v>4007</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F14" s="3">
         <v>300</v>
@@ -1724,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I14" s="3">
         <v>20</v>
@@ -1742,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1751,13 +1636,13 @@
         <v>4008</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F15" s="3">
         <v>300</v>
@@ -1766,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I15" s="3">
         <v>20</v>
@@ -1784,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1795,11 +1680,11 @@
         <v>4012</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F16" s="3">
         <v>300</v>
@@ -1808,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I16" s="3">
         <v>20</v>
@@ -1835,13 +1720,13 @@
         <v>4013</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F17" s="3">
         <v>300</v>
@@ -1850,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I17" s="3">
         <v>20</v>
@@ -1875,13 +1760,13 @@
         <v>4009</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F18" s="3">
         <v>3300</v>
@@ -1890,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I18" s="3">
         <v>5</v>
@@ -1908,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -2153,26 +2038,26 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/Datas/Skills.xlsx
+++ b/DataBase/Datas/Skills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1704B2-C6BC-4086-877C-D05B3F367289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2386861C-5A47-462B-96E0-9A65369EF49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trees" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="97">
   <si>
     <t>##var</t>
   </si>
@@ -124,9 +124,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SnowStorms</t>
-  </si>
-  <si>
     <t>相位猛冲</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -235,10 +232,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>立即恢复 88 生命。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>HealthPotion.png</t>
   </si>
   <si>
@@ -255,10 +248,6 @@
     <t>Coc.png</t>
   </si>
   <si>
-    <t>HealthPoint</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>闪电猛冲</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -312,10 +301,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Blizzard.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>FlamingMeteor.png</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -333,10 +318,6 @@
   </si>
   <si>
     <t>价格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放暴风雪，在范围内造成 10% 冰霜伤害。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -413,6 +394,14 @@
   </si>
   <si>
     <t>释放该技能向前发射 1 个火球，击中时造成 240% 武器攻击伤害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即恢复 300 生命。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HealthPtionn</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -784,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -816,10 +805,10 @@
         <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.35">
@@ -879,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -898,13 +887,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -918,10 +907,10 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
@@ -935,10 +924,10 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -952,10 +941,10 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
@@ -1034,12 +1023,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC15A313-98CA-4B90-B0D8-70658DEA93FA}">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1075,16 +1064,16 @@
         <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>12</v>
@@ -1093,13 +1082,13 @@
         <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1122,10 +1111,10 @@
         <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>14</v>
@@ -1140,7 +1129,7 @@
         <v>14</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>6</v>
@@ -1178,19 +1167,19 @@
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>15</v>
@@ -1199,37 +1188,37 @@
         <v>16</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
-        <v>4001</v>
+        <v>4002</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="F5" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G5" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I5" s="3">
         <v>20</v>
@@ -1247,31 +1236,31 @@
         <v>0</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
-        <v>4002</v>
+        <v>4003</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F6" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G6" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I6" s="3">
         <v>20</v>
@@ -1289,31 +1278,31 @@
         <v>0</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3">
-        <v>4003</v>
+        <v>4004</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>48</v>
+        <v>27</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="F7" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G7" s="3" t="b">
         <v>0</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I7" s="3">
         <v>20</v>
@@ -1331,22 +1320,22 @@
         <v>0</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3">
-        <v>4004</v>
+        <v>4005</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>98</v>
+        <v>29</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="F8" s="3">
         <v>300</v>
@@ -1355,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I8" s="3">
         <v>20</v>
@@ -1367,28 +1356,28 @@
         <v>0</v>
       </c>
       <c r="L8" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3">
-        <v>4005</v>
+        <v>4006</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F9" s="3">
         <v>300</v>
@@ -1397,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I9" s="3">
         <v>20</v>
@@ -1412,26 +1401,26 @@
         <v>0</v>
       </c>
       <c r="M9" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A10" s="3"/>
       <c r="B10" s="3">
-        <v>4006</v>
+        <v>4007</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="F10" s="3">
         <v>300</v>
       </c>
@@ -1439,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I10" s="3">
         <v>20</v>
@@ -1451,29 +1440,29 @@
         <v>0</v>
       </c>
       <c r="L10" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M10" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A11" s="3"/>
       <c r="B11" s="3">
-        <v>4007</v>
+        <v>4008</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="F11" s="3">
         <v>300</v>
       </c>
@@ -1481,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I11" s="3">
         <v>20</v>
@@ -1493,30 +1482,28 @@
         <v>0</v>
       </c>
       <c r="L11" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M11" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A12" s="3"/>
       <c r="B12" s="3">
-        <v>4008</v>
+        <v>4009</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="F12" s="3">
         <v>300</v>
@@ -1525,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I12" s="3">
         <v>20</v>
@@ -1537,40 +1524,40 @@
         <v>0</v>
       </c>
       <c r="L12" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M12" s="3" t="b">
         <v>0</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="54" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="3">
-        <v>4006</v>
+        <v>4010</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>61</v>
+        <v>80</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F13" s="3">
-        <v>300</v>
+        <v>3300</v>
       </c>
       <c r="G13" s="3" t="b">
         <v>0</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I13" s="3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J13" s="3">
         <v>1</v>
@@ -1579,29 +1566,29 @@
         <v>0</v>
       </c>
       <c r="L13" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M13" s="3" t="b">
         <v>0</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
+      <c r="A14" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="B14" s="3">
-        <v>4007</v>
+        <v>4011</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>75</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E14" s="3"/>
       <c r="F14" s="3">
         <v>300</v>
       </c>
@@ -1609,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I14" s="3">
         <v>20</v>
@@ -1621,29 +1608,29 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
+      <c r="A15" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="B15" s="3">
-        <v>4008</v>
+        <v>4012</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>82</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E15" s="3"/>
       <c r="F15" s="3">
         <v>300</v>
       </c>
@@ -1651,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I15" s="3">
         <v>20</v>
@@ -1663,13 +1650,13 @@
         <v>0</v>
       </c>
       <c r="L15" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1677,14 +1664,14 @@
         <v>7</v>
       </c>
       <c r="B16" s="3">
-        <v>4012</v>
+        <v>4013</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F16" s="3">
         <v>300</v>
@@ -1693,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I16" s="3">
         <v>20</v>
@@ -1717,16 +1704,16 @@
         <v>7</v>
       </c>
       <c r="B17" s="3">
-        <v>4013</v>
+        <v>4014</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F17" s="3">
         <v>300</v>
@@ -1735,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I17" s="3">
         <v>20</v>
@@ -1754,47 +1741,21 @@
       </c>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14" ht="54" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
-      <c r="B18" s="3">
-        <v>4009</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="3">
-        <v>3300</v>
-      </c>
-      <c r="G18" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I18" s="3">
-        <v>5</v>
-      </c>
-      <c r="J18" s="3">
-        <v>1</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
-        <v>3</v>
-      </c>
-      <c r="M18" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
@@ -1939,86 +1900,6 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/DataBase/Datas/Skills.xlsx
+++ b/DataBase/Datas/Skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2386861C-5A47-462B-96E0-9A65369EF49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1144535F-330B-4500-A7FE-1068D037164A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -401,7 +401,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>HealthPtionn</t>
+    <t>HealthPotion</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1025,10 +1025,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC15A313-98CA-4B90-B0D8-70658DEA93FA}">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1551,7 +1551,7 @@
         <v>3300</v>
       </c>
       <c r="G13" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>50</v>

--- a/DataBase/Datas/Skills.xlsx
+++ b/DataBase/Datas/Skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1144535F-330B-4500-A7FE-1068D037164A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2513C6CE-37F2-40B0-BDD8-601A27B130AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -252,10 +252,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>速度 +200，持续 5 秒，并对路径上的敌人造成 50% 闪电伤害。一路火花带闪电~</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>火焰流星</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -402,6 +398,10 @@
   </si>
   <si>
     <t>HealthPotion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度 +400，视野变宽阔，持续 5 秒。一路火花带闪电~</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -805,10 +805,10 @@
         <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.35">
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -887,13 +887,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -907,10 +907,10 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
@@ -924,10 +924,10 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -941,10 +941,10 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
@@ -1028,7 +1028,7 @@
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="N10" sqref="N10"/>
+      <selection pane="bottomLeft" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1064,16 +1064,16 @@
         <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>12</v>
@@ -1114,7 +1114,7 @@
         <v>41</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>14</v>
@@ -1170,7 +1170,7 @@
         <v>53</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>46</v>
@@ -1206,7 +1206,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>54</v>
@@ -1290,10 +1290,10 @@
         <v>27</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F7" s="3">
         <v>300</v>
@@ -1374,7 +1374,7 @@
         <v>51</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>52</v>
@@ -1404,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1416,10 +1416,10 @@
         <v>57</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F10" s="3">
         <v>300</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1455,13 +1455,13 @@
         <v>4008</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F11" s="3">
         <v>300</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1497,13 +1497,13 @@
         <v>4009</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F12" s="3">
         <v>300</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="54" x14ac:dyDescent="0.35">
@@ -1539,13 +1539,13 @@
         <v>4010</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="E13" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F13" s="3">
         <v>3300</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1667,11 +1667,11 @@
         <v>4013</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F16" s="3">
         <v>300</v>
@@ -1707,13 +1707,13 @@
         <v>4014</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="E17" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F17" s="3">
         <v>300</v>

--- a/DataBase/Datas/Skills.xlsx
+++ b/DataBase/Datas/Skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2513C6CE-37F2-40B0-BDD8-601A27B130AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073BD037-C3B1-4D8D-931C-25C029586D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="94">
   <si>
     <t>##var</t>
   </si>
@@ -144,38 +144,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>引导时释放</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>击中时施加诅咒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>暴击时释放绑定的辅助技能。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>引导时释放绑定的辅助技能。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>击中时为敌人增加绑定的诅咒。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CastOnCritical</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CastOnCasting</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffOnHit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>running_time</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -264,24 +240,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SomethingCraw.png</t>
-  </si>
-  <si>
-    <t>有东西爬</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ThunderBind.png</t>
-  </si>
-  <si>
-    <t>雷电束缚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>束缚附近最多 5 个敌人，并每秒造成 1% 雷电伤害。持续五秒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>LightRush</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -336,72 +294,102 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>释放该技能向前发射 1 个冰锥，击中时造成 240% 武器攻击伤害。
+    <t>IceShot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://icon.svg</t>
+  </si>
+  <si>
+    <t>buff_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏娃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷、力量、智慧 + 5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理伤害 + 10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有元素伤害 + 10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避率 + 10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://icon.svg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不断对自身一定范围内的敌人造成 37% 武器攻击伤害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放该技能向前发射 1 个火球，击中时造成 240% 武器攻击伤害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即恢复 300 生命。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HealthPotion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度 +400，视野变宽阔，持续 5 秒。一路火花带闪电~</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰之环</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireRing.png</t>
+  </si>
+  <si>
+    <t>FireRing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>向前发射 1 个冰锥，击中时造成 240% 武器攻击伤害。
 冰锥击中敌人后产生爆炸，击中时造成 120% 武器攻击伤害。
 该技能 20% 物理伤害转化为冰冷伤害。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>IceShot</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://icon.svg</t>
-  </si>
-  <si>
-    <t>buff_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>夏娃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>敏捷、力量、智慧 + 5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理伤害 + 10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有元素伤害 + 10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪避率 + 10%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://icon.svg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不断对自身一定范围内的敌人造成 37% 武器攻击伤害。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放该技能向前发射 1 个火球，击中时造成 240% 武器攻击伤害。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>立即恢复 300 生命。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HealthPotion</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度 +400，视野变宽阔，持续 5 秒。一路火花带闪电~</t>
+    <t>在自身一定范围内形成一圈火焰，造成 10-14 火焰伤害，持续 5 秒。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldShield</t>
+  </si>
+  <si>
+    <t>GoldShield.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神圣护盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成一个护盾，+6%的毒素抗性和物理抗性。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -805,10 +793,10 @@
         <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.35">
@@ -868,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -887,13 +875,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -907,10 +895,10 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
@@ -924,10 +912,10 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -941,10 +929,10 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
@@ -1023,12 +1011,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC15A313-98CA-4B90-B0D8-70658DEA93FA}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="L5" sqref="L5"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1064,16 +1052,16 @@
         <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>12</v>
@@ -1082,13 +1070,13 @@
         <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1111,10 +1099,10 @@
         <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>14</v>
@@ -1129,7 +1117,7 @@
         <v>14</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>6</v>
@@ -1167,19 +1155,19 @@
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>15</v>
@@ -1188,13 +1176,13 @@
         <v>16</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1206,10 +1194,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F5" s="3">
         <v>300</v>
@@ -1218,7 +1206,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I5" s="3">
         <v>20</v>
@@ -1248,10 +1236,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F6" s="3">
         <v>200</v>
@@ -1260,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I6" s="3">
         <v>20</v>
@@ -1290,10 +1278,10 @@
         <v>27</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="F7" s="3">
         <v>300</v>
@@ -1302,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I7" s="3">
         <v>20</v>
@@ -1332,10 +1320,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F8" s="3">
         <v>300</v>
@@ -1344,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I8" s="3">
         <v>20</v>
@@ -1362,7 +1350,7 @@
         <v>1</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1371,13 +1359,13 @@
         <v>4006</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F9" s="3">
         <v>300</v>
@@ -1386,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I9" s="3">
         <v>20</v>
@@ -1404,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1413,13 +1401,13 @@
         <v>4007</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="F10" s="3">
         <v>300</v>
@@ -1428,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I10" s="3">
         <v>20</v>
@@ -1446,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1455,13 +1443,13 @@
         <v>4008</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="F11" s="3">
         <v>300</v>
@@ -1470,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I11" s="3">
         <v>20</v>
@@ -1488,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1497,13 +1485,13 @@
         <v>4009</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="F12" s="3">
         <v>300</v>
@@ -1512,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I12" s="3">
         <v>20</v>
@@ -1530,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="54" x14ac:dyDescent="0.35">
@@ -1539,25 +1527,25 @@
         <v>4010</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="F13" s="3">
-        <v>3300</v>
+        <v>300</v>
       </c>
       <c r="G13" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I13" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J13" s="3">
         <v>1</v>
@@ -1572,23 +1560,23 @@
         <v>0</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A14" s="3"/>
       <c r="B14" s="3">
         <v>4011</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="F14" s="3">
         <v>300</v>
       </c>
@@ -1596,41 +1584,41 @@
         <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I14" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J14" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M14" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A15" s="3"/>
       <c r="B15" s="3">
         <v>4012</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="3"/>
+        <v>92</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="F15" s="3">
         <v>300</v>
       </c>
@@ -1638,107 +1626,57 @@
         <v>0</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I15" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J15" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
       <c r="L15" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M15" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3">
-        <v>4013</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="3">
-        <v>300</v>
-      </c>
-      <c r="G16" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I16" s="3">
-        <v>20</v>
-      </c>
-      <c r="J16" s="3">
-        <v>1</v>
-      </c>
-      <c r="K16" s="3">
-        <v>0</v>
-      </c>
-      <c r="L16" s="3">
-        <v>0</v>
-      </c>
-      <c r="M16" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
       <c r="N16" s="3"/>
     </row>
     <row r="17" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="3">
-        <v>4014</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" s="3">
-        <v>300</v>
-      </c>
-      <c r="G17" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I17" s="3">
-        <v>20</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
       <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1900,6 +1838,70 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
